--- a/Documentacion APPs/Documentacion SA - MENUS-MANTENEDORES.xlsx
+++ b/Documentacion APPs/Documentacion SA - MENUS-MANTENEDORES.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="7680" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parametro" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="49">
   <si>
     <t>nParCodigo</t>
   </si>
@@ -114,31 +114,7 @@
     <t>nParEstado</t>
   </si>
   <si>
-    <t>xajax_Nuevo_Parametro();</t>
-  </si>
-  <si>
-    <t>xajax_Editar_Parametro(xajax.getFormValues(FrmPrincipal));</t>
-  </si>
-  <si>
-    <t>xajax_Eliminar_Parametro(xajax.getFormValues(FrmPrincipal));</t>
-  </si>
-  <si>
-    <t>xajax_Reportes_Parametro(xajax.getFormValues(FrmPrincipal));</t>
-  </si>
-  <si>
-    <t>xajax_Configurar_Parametro(1002);</t>
-  </si>
-  <si>
     <t>Tablas Maestra</t>
-  </si>
-  <si>
-    <t>Sexo</t>
-  </si>
-  <si>
-    <t>xajax_Configurar_Parametro(1002)</t>
-  </si>
-  <si>
-    <t>sexo</t>
   </si>
   <si>
     <t>xajax_Listar_Periodo(0,20,1,1);</t>
@@ -541,11 +517,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H26"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21:H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,13 +592,13 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G3">
         <v>1000</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
@@ -636,16 +612,16 @@
         <v>100101</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G4">
         <v>1000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -759,16 +735,16 @@
         <v>100102</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G11">
         <v>1000</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -865,132 +841,9 @@
         <v>25</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G16">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>100102</v>
-      </c>
-      <c r="C21">
-        <v>5000</v>
-      </c>
-      <c r="D21">
-        <v>100102</v>
-      </c>
-      <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21">
-        <v>1000</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>10010201</v>
-      </c>
-      <c r="C22">
-        <v>5001</v>
-      </c>
-      <c r="D22">
-        <v>10010201</v>
-      </c>
-      <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" t="s">
-        <v>16</v>
-      </c>
-      <c r="G22">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>10010202</v>
-      </c>
-      <c r="C23">
-        <v>5001</v>
-      </c>
-      <c r="D23">
-        <v>10010202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>10010203</v>
-      </c>
-      <c r="C24">
-        <v>5001</v>
-      </c>
-      <c r="D24">
-        <v>10010203</v>
-      </c>
-      <c r="E24" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>10010204</v>
-      </c>
-      <c r="C25">
-        <v>5001</v>
-      </c>
-      <c r="D25">
-        <v>10010204</v>
-      </c>
-      <c r="E25" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>10010205</v>
-      </c>
-      <c r="C26">
-        <v>5001</v>
-      </c>
-      <c r="D26">
-        <v>10010205</v>
-      </c>
-      <c r="E26" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26">
         <v>1000</v>
       </c>
     </row>
@@ -1002,11 +855,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:H27"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,13 +905,13 @@
         <v>5001</v>
       </c>
       <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -1075,7 +928,7 @@
         <v>5001</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -1095,7 +948,7 @@
         <v>5001</v>
       </c>
       <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1115,7 +968,7 @@
         <v>5001</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -1135,7 +988,7 @@
         <v>5001</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1155,13 +1008,13 @@
         <v>5001</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -1178,7 +1031,7 @@
         <v>5001</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1198,7 +1051,7 @@
         <v>5001</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1218,7 +1071,7 @@
         <v>5001</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1238,112 +1091,9 @@
         <v>5001</v>
       </c>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>100102</v>
-      </c>
-      <c r="C23">
-        <v>5000</v>
-      </c>
-      <c r="D23">
-        <v>10010201</v>
-      </c>
-      <c r="E23">
-        <v>5001</v>
-      </c>
-      <c r="F23" t="s">
-        <v>32</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
-      <c r="H23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>100102</v>
-      </c>
-      <c r="C24">
-        <v>5000</v>
-      </c>
-      <c r="D24">
-        <v>10010202</v>
-      </c>
-      <c r="E24">
-        <v>5001</v>
-      </c>
-      <c r="F24" t="s">
-        <v>36</v>
-      </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>100102</v>
-      </c>
-      <c r="C25">
-        <v>5000</v>
-      </c>
-      <c r="D25">
-        <v>10010203</v>
-      </c>
-      <c r="E25">
-        <v>5001</v>
-      </c>
-      <c r="F25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>100102</v>
-      </c>
-      <c r="C26">
-        <v>5000</v>
-      </c>
-      <c r="D26">
-        <v>10010204</v>
-      </c>
-      <c r="E26">
-        <v>5001</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>100102</v>
-      </c>
-      <c r="C27">
-        <v>5000</v>
-      </c>
-      <c r="D27">
-        <v>10010205</v>
-      </c>
-      <c r="E27">
-        <v>5001</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27">
         <v>1</v>
       </c>
     </row>
@@ -1356,7 +1106,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
@@ -1441,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -1582,7 +1332,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
